--- a/XX_Url/Ferguson_URL.xlsx
+++ b/XX_Url/Ferguson_URL.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26917FCD-E658-44FD-AB50-2C30B312DED9}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{995CD129-B58F-461C-A69B-4540CA59CA99}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HomeDepot_URL" sheetId="2" r:id="rId1"/>
+    <sheet name="URL" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Linea</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Capacidad (Gpl)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elongated  </t>
   </si>
   <si>
     <t>Fabricante</t>
@@ -1072,7 +1069,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,10 +1088,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>21</v>
@@ -1123,10 +1120,10 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -1155,10 +1152,10 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
@@ -1187,10 +1184,10 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -1205,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H4" s="11">
         <v>1.28</v>
@@ -1219,10 +1216,10 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>

--- a/XX_Url/Ferguson_URL.xlsx
+++ b/XX_Url/Ferguson_URL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{995CD129-B58F-461C-A69B-4540CA59CA99}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02E01EDA-B89B-4C82-9DA8-15282B3F50BE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Linea</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Bowl Height</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -108,22 +105,52 @@
     <t>Fabricante</t>
   </si>
   <si>
-    <t>Homólogo Mansfield</t>
-  </si>
-  <si>
     <t>Gerber</t>
   </si>
   <si>
     <t>5916CTK</t>
   </si>
   <si>
-    <t xml:space="preserve">317310000           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">137210040           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">160010007           </t>
+    <t>Homologo Mansfield</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>Bowl</t>
+  </si>
+  <si>
+    <t>4 - 1/4</t>
+  </si>
+  <si>
+    <t>Gerber Maxwell ADA EL Bowl</t>
+  </si>
+  <si>
+    <t>317310000</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Gerber Maxwell 1,28 gpf Tank</t>
+  </si>
+  <si>
+    <t>137210040</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>160010007</t>
+  </si>
+  <si>
+    <t>Gerber Maxwell 1,6 gpf Tank</t>
   </si>
 </sst>
 </file>
@@ -674,16 +701,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -708,6 +732,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1066,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,181 +1107,210 @@
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="87.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="214" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="139.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9">
-        <v>4.25</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="10">
         <v>1.28</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>11</v>
+      <c r="J4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1.28</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="11">
-        <v>1.28</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="8" t="s">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="K5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{BA1E7B92-2710-4DBE-B75A-369DA2848FB6}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{603E3A1A-77C0-4FF6-8020-6DE00C8094BC}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{43CA1B0E-0BB7-4057-9ED5-4B1D5AE9756E}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{5FF0E71A-A3EF-45A5-A32E-81760499CF0D}"/>
+    <hyperlink ref="L5" r:id="rId1" xr:uid="{1CC81736-04CD-4F75-9172-6893B9D63B0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/XX_Url/Ferguson_URL.xlsx
+++ b/XX_Url/Ferguson_URL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02E01EDA-B89B-4C82-9DA8-15282B3F50BE}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8A4CBC2-4AC7-4BFB-B003-2FDEE3A126B5}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Linea</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Gerber Maxwell 1,6 gpf Tank</t>
+  </si>
+  <si>
+    <t>Gerber Maxwell ADA EL Bowl 14"</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1117,7 @@
     <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.5703125" customWidth="1"/>
     <col min="12" max="12" width="139.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1264,7 +1267,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -1313,5 +1316,6 @@
     <hyperlink ref="L5" r:id="rId1" xr:uid="{1CC81736-04CD-4F75-9172-6893B9D63B0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/XX_Url/Ferguson_URL.xlsx
+++ b/XX_Url/Ferguson_URL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8A4CBC2-4AC7-4BFB-B003-2FDEE3A126B5}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48718FE7-4D0F-4B57-981F-4B0BCF91DBCE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,8 +1314,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L5" r:id="rId1" xr:uid="{1CC81736-04CD-4F75-9172-6893B9D63B0A}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{DE41BE7D-AF90-41FC-B787-107DD22EDCFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>